--- a/KetQua.xlsx
+++ b/KetQua.xlsx
@@ -516,7 +516,7 @@
   <dimension ref="A1:C451"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A435" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C452" activeCellId="0" sqref="C452"/>
+      <selection pane="topLeft" activeCell="I447" activeCellId="0" sqref="I447"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
